--- a/patients.xlsx
+++ b/patients.xlsx
@@ -1,32 +1,496 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\MAIS-hacks-2025\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2526B1-9521-46DF-8682-DB32FEE25947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+  <si>
+    <t>steps_awake_mean</t>
+  </si>
+  <si>
+    <t>sleep_asleep_weekday_mean</t>
+  </si>
+  <si>
+    <t>sleep_asleep_weekend_mean</t>
+  </si>
+  <si>
+    <t>sleep_in_bed_weekday_mean</t>
+  </si>
+  <si>
+    <t>sleep_in_bed_weekend_mean</t>
+  </si>
+  <si>
+    <t>sleep_ratio_asleep_in_bed_weekday_mean</t>
+  </si>
+  <si>
+    <t>sleep_ratio_asleep_in_bed_weekend_mean</t>
+  </si>
+  <si>
+    <t>sleep_in_bed_iqr</t>
+  </si>
+  <si>
+    <t>sleep_asleep_iqr</t>
+  </si>
+  <si>
+    <t>sleep_ratio_asleep_in_bed_iqr</t>
+  </si>
+  <si>
+    <t>steps_mvpa_iqr</t>
+  </si>
+  <si>
+    <t>steps_lpa_iqr</t>
+  </si>
+  <si>
+    <t>steps_awake_sum_iqr</t>
+  </si>
+  <si>
+    <t>sleep_main_start_hour_adj_median</t>
+  </si>
+  <si>
+    <t>sleep_main_start_hour_adj_iqr</t>
+  </si>
+  <si>
+    <t>sleep_main_start_hour_adj_range</t>
+  </si>
+  <si>
+    <t>sleep__hypersomnia_count_</t>
+  </si>
+  <si>
+    <t>sleep__hyposomnia_count_</t>
+  </si>
+  <si>
+    <t>steps__active_day_count_</t>
+  </si>
+  <si>
+    <t>steps__sedentary_day_count_</t>
+  </si>
+  <si>
+    <t>sleep__main_start_hour_adj__score</t>
+  </si>
+  <si>
+    <t>sleep__main_start_hour_adj__intercept</t>
+  </si>
+  <si>
+    <t>sleep__main_start_hour_adj__coeff</t>
+  </si>
+  <si>
+    <t>steps__awake__sum__score</t>
+  </si>
+  <si>
+    <t>steps__awake__sum__intercept</t>
+  </si>
+  <si>
+    <t>steps__awake__sum__coeff</t>
+  </si>
+  <si>
+    <t>steps__mvpa__sum__score</t>
+  </si>
+  <si>
+    <t>steps__mvpa__sum__intercept</t>
+  </si>
+  <si>
+    <t>steps__mvpa__sum__coeff</t>
+  </si>
+  <si>
+    <t>steps__light_activity__sum__score</t>
+  </si>
+  <si>
+    <t>steps__light_activity__sum__intercept</t>
+  </si>
+  <si>
+    <t>steps__light_activity__sum__coeff</t>
+  </si>
+  <si>
+    <t>steps__rolling_6_sum__max__score</t>
+  </si>
+  <si>
+    <t>steps__rolling_6_sum__max__intercept</t>
+  </si>
+  <si>
+    <t>steps__rolling_6_sum__max__coeff</t>
+  </si>
+  <si>
+    <t>steps__streaks__countDistinct__score</t>
+  </si>
+  <si>
+    <t>steps__streaks__countDistinct__intercept</t>
+  </si>
+  <si>
+    <t>steps__streaks__countDistinct__coeff</t>
+  </si>
+  <si>
+    <t>steps__not_moving__sum__score</t>
+  </si>
+  <si>
+    <t>steps__not_moving__sum__intercept</t>
+  </si>
+  <si>
+    <t>steps__not_moving__sum__coeff</t>
+  </si>
+  <si>
+    <t>sleep__nap_count__score</t>
+  </si>
+  <si>
+    <t>sleep__nap_count__intercept</t>
+  </si>
+  <si>
+    <t>sleep__nap_count__coeff</t>
+  </si>
+  <si>
+    <t>sleep__total_asleep_minutes__score</t>
+  </si>
+  <si>
+    <t>sleep__total_asleep_minutes__intercept</t>
+  </si>
+  <si>
+    <t>sleep__total_asleep_minutes__coeff</t>
+  </si>
+  <si>
+    <t>sleep__main_efficiency__score</t>
+  </si>
+  <si>
+    <t>sleep__main_efficiency__intercept</t>
+  </si>
+  <si>
+    <t>sleep__main_efficiency__coeff</t>
+  </si>
+  <si>
+    <t>sleep__awake__sum__score</t>
+  </si>
+  <si>
+    <t>sleep__awake__sum__intercept</t>
+  </si>
+  <si>
+    <t>sleep__awake__sum__coeff</t>
+  </si>
+  <si>
+    <t>sleep__total_in_bed_minutes__score</t>
+  </si>
+  <si>
+    <t>sleep__total_in_bed_minutes__intercept</t>
+  </si>
+  <si>
+    <t>sleep__total_in_bed_minutes__coeff</t>
+  </si>
+  <si>
+    <t>sleep__awake_regions__countDistinct__score</t>
+  </si>
+  <si>
+    <t>sleep__awake_regions__countDistinct__intercept</t>
+  </si>
+  <si>
+    <t>sleep__awake_regions__countDistinct__coeff</t>
+  </si>
+  <si>
+    <t>sleep_ratio_asleep_in_bed__score</t>
+  </si>
+  <si>
+    <t>sleep_ratio_asleep_in_bed__intercept</t>
+  </si>
+  <si>
+    <t>sleep_ratio_asleep_in_bed__coeff</t>
+  </si>
+  <si>
+    <t>sleep__main_start_hour_adj__score_</t>
+  </si>
+  <si>
+    <t>sleep__main_start_hour_adj__intercept_</t>
+  </si>
+  <si>
+    <t>sleep__main_start_hour_adj__coeff_</t>
+  </si>
+  <si>
+    <t>steps__awake__sum__score_</t>
+  </si>
+  <si>
+    <t>steps__awake__sum__intercept_</t>
+  </si>
+  <si>
+    <t>steps__awake__sum__coeff_</t>
+  </si>
+  <si>
+    <t>steps__mvpa__sum__score_</t>
+  </si>
+  <si>
+    <t>steps__mvpa__sum__intercept_</t>
+  </si>
+  <si>
+    <t>steps__mvpa__sum__coeff_</t>
+  </si>
+  <si>
+    <t>steps__light_activity__sum__score_</t>
+  </si>
+  <si>
+    <t>steps__light_activity__sum__intercept_</t>
+  </si>
+  <si>
+    <t>steps__light_activity__sum__coeff_</t>
+  </si>
+  <si>
+    <t>steps__rolling_6_sum__max__score_</t>
+  </si>
+  <si>
+    <t>steps__rolling_6_sum__max__intercept_</t>
+  </si>
+  <si>
+    <t>steps__rolling_6_sum__max__coeff_</t>
+  </si>
+  <si>
+    <t>steps__streaks__countDistinct__score_</t>
+  </si>
+  <si>
+    <t>steps__streaks__countDistinct__intercept_</t>
+  </si>
+  <si>
+    <t>steps__streaks__countDistinct__coeff_</t>
+  </si>
+  <si>
+    <t>steps__not_moving__sum__score_</t>
+  </si>
+  <si>
+    <t>steps__not_moving__sum__intercept_</t>
+  </si>
+  <si>
+    <t>steps__not_moving__sum__coeff_</t>
+  </si>
+  <si>
+    <t>sleep__nap_count__score_</t>
+  </si>
+  <si>
+    <t>sleep__nap_count__intercept_</t>
+  </si>
+  <si>
+    <t>sleep__nap_count__coeff_</t>
+  </si>
+  <si>
+    <t>sleep__total_asleep_minutes__score_</t>
+  </si>
+  <si>
+    <t>sleep__total_asleep_minutes__intercept_</t>
+  </si>
+  <si>
+    <t>sleep__total_asleep_minutes__coeff_</t>
+  </si>
+  <si>
+    <t>sleep__main_efficiency__score_</t>
+  </si>
+  <si>
+    <t>sleep__main_efficiency__intercept_</t>
+  </si>
+  <si>
+    <t>sleep__main_efficiency__coeff_</t>
+  </si>
+  <si>
+    <t>sleep__awake__sum__score_</t>
+  </si>
+  <si>
+    <t>sleep__awake__sum__intercept_</t>
+  </si>
+  <si>
+    <t>sleep__awake__sum__coeff_</t>
+  </si>
+  <si>
+    <t>sleep__total_in_bed_minutes__score_</t>
+  </si>
+  <si>
+    <t>sleep__total_in_bed_minutes__intercept_</t>
+  </si>
+  <si>
+    <t>sleep__total_in_bed_minutes__coeff_</t>
+  </si>
+  <si>
+    <t>sleep__awake_regions__countDistinct__score_</t>
+  </si>
+  <si>
+    <t>sleep__awake_regions__countDistinct__intercept_</t>
+  </si>
+  <si>
+    <t>sleep__awake_regions__countDistinct__coeff_</t>
+  </si>
+  <si>
+    <t>sleep_ratio_asleep_in_bed__score_</t>
+  </si>
+  <si>
+    <t>sleep_ratio_asleep_in_bed__intercept_</t>
+  </si>
+  <si>
+    <t>sleep_ratio_asleep_in_bed__coeff_</t>
+  </si>
+  <si>
+    <t>steps_mvpa_sum_recent</t>
+  </si>
+  <si>
+    <t>sleep_asleep_mean_recent</t>
+  </si>
+  <si>
+    <t>sleep_in_bed_mean_recent</t>
+  </si>
+  <si>
+    <t>sleep_ratio_asleep_in_bed_mean_recent</t>
+  </si>
+  <si>
+    <t>steps_lpa_sum_recent</t>
+  </si>
+  <si>
+    <t>steps_rolling_6_median_recent</t>
+  </si>
+  <si>
+    <t>steps_rolling_6_max_recent</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>race_hispanic</t>
+  </si>
+  <si>
+    <t>birthyear</t>
+  </si>
+  <si>
+    <t>educ</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>bmi</t>
+  </si>
+  <si>
+    <t>pregnant</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>trauma</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>money_assistance</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>comorbid_cancer</t>
+  </si>
+  <si>
+    <t>comorbid_diabetes_typ1</t>
+  </si>
+  <si>
+    <t>comorbid_diabetes_typ2</t>
+  </si>
+  <si>
+    <t>comorbid_gout</t>
+  </si>
+  <si>
+    <t>comorbid_migraines</t>
+  </si>
+  <si>
+    <t>comorbid_ms</t>
+  </si>
+  <si>
+    <t>comorbid_osteoporosis</t>
+  </si>
+  <si>
+    <t>num_migraine_days</t>
+  </si>
+  <si>
+    <t>meds_migraine</t>
+  </si>
+  <si>
+    <t>med_start</t>
+  </si>
+  <si>
+    <t>med_stop</t>
+  </si>
+  <si>
+    <t>med_dose</t>
+  </si>
+  <si>
+    <t>nonmed_start</t>
+  </si>
+  <si>
+    <t>nonmed_stop</t>
+  </si>
+  <si>
+    <t>life_meditation</t>
+  </si>
+  <si>
+    <t>life_stress</t>
+  </si>
+  <si>
+    <t>med_nonmed_dnu</t>
+  </si>
+  <si>
+    <t>life_activity_eating</t>
+  </si>
+  <si>
+    <t>life_red_stop_alcoh</t>
+  </si>
+  <si>
+    <t>comorbid_neuropathic</t>
+  </si>
+  <si>
+    <t>comorbid_arthritis</t>
+  </si>
+  <si>
+    <t>phq9_score_start</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>jee</t>
+  </si>
+  <si>
+    <t>ggg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +501,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +509,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -79,44 +561,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +625,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +659,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +670,1533 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:ET3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:150" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:150" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="1">
+        <v>621</v>
+      </c>
+      <c r="C2">
+        <v>5680.9285714285716</v>
+      </c>
+      <c r="D2">
+        <v>334.91666666666669</v>
+      </c>
+      <c r="E2">
+        <v>298</v>
+      </c>
+      <c r="F2">
+        <v>347.5</v>
+      </c>
+      <c r="G2">
+        <v>306</v>
+      </c>
+      <c r="H2">
+        <v>0.9640990159251106</v>
+      </c>
+      <c r="I2">
+        <v>0.97356714032738734</v>
+      </c>
+      <c r="J2">
+        <v>16.25</v>
+      </c>
+      <c r="K2">
+        <v>18.25</v>
+      </c>
+      <c r="L2">
+        <v>1.269713123478744E-2</v>
+      </c>
+      <c r="M2">
+        <v>2.75</v>
+      </c>
+      <c r="N2">
+        <v>11.75</v>
+      </c>
+      <c r="O2">
+        <v>1146.75</v>
+      </c>
+      <c r="P2">
+        <v>25</v>
+      </c>
+      <c r="Q2">
+        <v>2.5</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1.68855534709178E-3</v>
+      </c>
+      <c r="X2">
+        <v>0.94329600407346481</v>
+      </c>
+      <c r="Y2">
+        <v>-5.1184229195407327E-3</v>
+      </c>
+      <c r="Z2">
+        <v>4.0327369841608451E-5</v>
+      </c>
+      <c r="AA2">
+        <v>-0.51390571136880681</v>
+      </c>
+      <c r="AB2">
+        <v>-3.8233195236736479E-4</v>
+      </c>
+      <c r="AC2">
+        <v>3.2819074333800928E-2</v>
+      </c>
+      <c r="AD2">
+        <v>-0.45755992911392379</v>
+      </c>
+      <c r="AE2">
+        <v>3.135950194687391E-3</v>
+      </c>
+      <c r="AF2">
+        <v>3.4824595496451338E-2</v>
+      </c>
+      <c r="AG2">
+        <v>-0.33139490101694369</v>
+      </c>
+      <c r="AH2">
+        <v>-1.4000526783687829E-2</v>
+      </c>
+      <c r="AI2">
+        <v>2.4443514007419509E-3</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.16403477240721959</v>
+      </c>
+      <c r="AK2">
+        <v>6.2428795314819138E-3</v>
+      </c>
+      <c r="AL2">
+        <v>0.12256907179507789</v>
+      </c>
+      <c r="AM2">
+        <v>-0.78847591858246502</v>
+      </c>
+      <c r="AN2">
+        <v>5.9373452518602619E-2</v>
+      </c>
+      <c r="AO2">
+        <v>5.5644698713507752E-2</v>
+      </c>
+      <c r="AP2">
+        <v>1.140119782211072</v>
+      </c>
+      <c r="AQ2">
+        <v>-2.0943505355342371E-2</v>
+      </c>
+      <c r="AR2">
+        <v>2.5641025641021109E-3</v>
+      </c>
+      <c r="AS2">
+        <v>3.2558034264352498E-2</v>
+      </c>
+      <c r="AT2">
+        <v>-1.0777719469339199E-2</v>
+      </c>
+      <c r="AU2">
+        <v>9.7198670042594859E-2</v>
+      </c>
+      <c r="AV2">
+        <v>-0.1431409446151938</v>
+      </c>
+      <c r="AW2">
+        <v>-1.7256138490486371E-2</v>
+      </c>
+      <c r="AX2">
+        <v>9.0742240215924586E-2</v>
+      </c>
+      <c r="AY2">
+        <v>0.56641011844429956</v>
+      </c>
+      <c r="AZ2">
+        <v>6.8379233680517142E-3</v>
+      </c>
+      <c r="BA2">
+        <v>2.7190122771728609E-3</v>
+      </c>
+      <c r="BB2">
+        <v>-0.60777278962196402</v>
+      </c>
+      <c r="BC2">
+        <v>-9.2896461294796518E-4</v>
+      </c>
+      <c r="BD2">
+        <v>8.1936149769622935E-2</v>
+      </c>
+      <c r="BE2">
+        <v>-0.33883619367358542</v>
+      </c>
+      <c r="BF2">
+        <v>-1.561759788266851E-2</v>
+      </c>
+      <c r="BG2">
+        <v>0.12908324552160169</v>
+      </c>
+      <c r="BH2">
+        <v>-0.67012127023997758</v>
+      </c>
+      <c r="BI2">
+        <v>-3.1373013804192169E-2</v>
+      </c>
+      <c r="BJ2">
+        <v>4.9967482863127473E-2</v>
+      </c>
+      <c r="BK2">
+        <v>0.61231372918543781</v>
+      </c>
+      <c r="BL2">
+        <v>-4.6453474719313154E-3</v>
+      </c>
+      <c r="BM2">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="BN2">
+        <v>0.73180557388576672</v>
+      </c>
+      <c r="BO2">
+        <v>4.1700390529288839E-2</v>
+      </c>
+      <c r="BP2">
+        <v>7.5386116050111251E-3</v>
+      </c>
+      <c r="BQ2">
+        <v>-0.45087627289132681</v>
+      </c>
+      <c r="BR2">
+        <v>-6.6604049604963066E-3</v>
+      </c>
+      <c r="BS2">
+        <v>0.13297872340425551</v>
+      </c>
+      <c r="BT2">
+        <v>-0.46764895184210231</v>
+      </c>
+      <c r="BU2">
+        <v>1.3070362526421979E-2</v>
+      </c>
+      <c r="BV2">
+        <v>0.13522403982930309</v>
+      </c>
+      <c r="BW2">
+        <v>-0.30549879450128059</v>
+      </c>
+      <c r="BX2">
+        <v>-3.9527852406049509E-2</v>
+      </c>
+      <c r="BY2">
+        <v>0.1274656011198898</v>
+      </c>
+      <c r="BZ2">
+        <v>0.31268431662075691</v>
+      </c>
+      <c r="CA2">
+        <v>-0.1033596695429297</v>
+      </c>
+      <c r="CB2">
+        <v>0.25447288742086432</v>
+      </c>
+      <c r="CC2">
+        <v>-0.4624587526500763</v>
+      </c>
+      <c r="CD2">
+        <v>0.10749996670265489</v>
+      </c>
+      <c r="CE2">
+        <v>2.3071664577872801E-3</v>
+      </c>
+      <c r="CF2">
+        <v>0.97540672747247226</v>
+      </c>
+      <c r="CG2">
+        <v>-8.5254225060503088E-3</v>
+      </c>
+      <c r="CH2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="CI2">
+        <v>-0.56274643249530087</v>
+      </c>
+      <c r="CJ2">
+        <v>0.1750179351560765</v>
+      </c>
+      <c r="CK2">
+        <v>0.62829639320712116</v>
+      </c>
+      <c r="CL2">
+        <v>-7.7854967634301608E-2</v>
+      </c>
+      <c r="CM2">
+        <v>-6.4981923112623616E-2</v>
+      </c>
+      <c r="CN2">
+        <v>0.2250000000000002</v>
+      </c>
+      <c r="CO2">
+        <v>0.58870243392676702</v>
+      </c>
+      <c r="CP2">
+        <v>1.6291219608695569E-2</v>
+      </c>
+      <c r="CQ2">
+        <v>0.1861233480176212</v>
+      </c>
+      <c r="CR2">
+        <v>-0.57254869147371279</v>
+      </c>
+      <c r="CS2">
+        <v>-1.403212873131123E-2</v>
+      </c>
+      <c r="CT2">
+        <v>0.5781609592193685</v>
+      </c>
+      <c r="CU2">
+        <v>-0.2696106334134547</v>
+      </c>
+      <c r="CV2">
+        <v>-6.1683973594801038E-2</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>-1.0472835955309581</v>
+      </c>
+      <c r="CY2">
+        <v>-9.1792938218003213E-18</v>
+      </c>
+      <c r="CZ2">
+        <v>2.3893080315106171E-2</v>
+      </c>
+      <c r="DA2">
+        <v>0.58666917860286028</v>
+      </c>
+      <c r="DB2">
+        <v>-4.434721776653063E-3</v>
+      </c>
+      <c r="DC2">
+        <v>30</v>
+      </c>
+      <c r="DD2">
+        <v>311.5</v>
+      </c>
+      <c r="DE2">
+        <v>323.25</v>
+      </c>
+      <c r="DF2">
+        <v>0.96404794966596674</v>
+      </c>
+      <c r="DG2">
+        <v>93</v>
+      </c>
+      <c r="DH2">
+        <v>482.5</v>
+      </c>
+      <c r="DI2">
+        <v>603</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>1990</v>
+      </c>
+      <c r="DM2">
+        <v>4</v>
+      </c>
+      <c r="DN2">
+        <v>63</v>
+      </c>
+      <c r="DO2">
+        <v>114</v>
+      </c>
+      <c r="DP2">
+        <v>20.191987906273621</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>1</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2">
+        <v>1</v>
+      </c>
+      <c r="DW2">
+        <v>0</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2">
+        <v>0</v>
+      </c>
+      <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2">
+        <v>0</v>
+      </c>
+      <c r="EJ2">
+        <v>0</v>
+      </c>
+      <c r="EK2">
+        <v>0</v>
+      </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>1</v>
+      </c>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
+        <v>0</v>
+      </c>
+      <c r="EQ2">
+        <v>0</v>
+      </c>
+      <c r="ER2">
+        <v>0</v>
+      </c>
+      <c r="ES2">
+        <v>3</v>
+      </c>
+      <c r="ET2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:150" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="1">
+        <v>942</v>
+      </c>
+      <c r="C3">
+        <v>13061.642857142861</v>
+      </c>
+      <c r="D3">
+        <v>406.5</v>
+      </c>
+      <c r="E3">
+        <v>380.5</v>
+      </c>
+      <c r="F3">
+        <v>451.66666666666669</v>
+      </c>
+      <c r="G3">
+        <v>442.5</v>
+      </c>
+      <c r="H3">
+        <v>0.9015974825351859</v>
+      </c>
+      <c r="I3">
+        <v>0.85974629955811011</v>
+      </c>
+      <c r="J3">
+        <v>75</v>
+      </c>
+      <c r="K3">
+        <v>61.25</v>
+      </c>
+      <c r="L3">
+        <v>4.718361215555289E-2</v>
+      </c>
+      <c r="M3">
+        <v>31.75</v>
+      </c>
+      <c r="N3">
+        <v>15.75</v>
+      </c>
+      <c r="O3">
+        <v>2942.5</v>
+      </c>
+      <c r="P3">
+        <v>22</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>7</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>8.4565108094519559E-2</v>
+      </c>
+      <c r="X3">
+        <v>-0.60929228152055337</v>
+      </c>
+      <c r="Y3">
+        <v>2.4739044111113471E-2</v>
+      </c>
+      <c r="Z3">
+        <v>0.19993462641161289</v>
+      </c>
+      <c r="AA3">
+        <v>1.0870052309411591</v>
+      </c>
+      <c r="AB3">
+        <v>-3.9402657609402633E-2</v>
+      </c>
+      <c r="AC3">
+        <v>9.756361828920046E-2</v>
+      </c>
+      <c r="AD3">
+        <v>1.630982900547878</v>
+      </c>
+      <c r="AE3">
+        <v>-5.4436879020599058E-2</v>
+      </c>
+      <c r="AF3">
+        <v>0.28592292228655858</v>
+      </c>
+      <c r="AG3">
+        <v>0.16728753953387479</v>
+      </c>
+      <c r="AH3">
+        <v>-4.0494797199455861E-2</v>
+      </c>
+      <c r="AI3">
+        <v>3.3784363658426741E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>1.361697191445211</v>
+      </c>
+      <c r="AK3">
+        <v>2.219215395095283E-2</v>
+      </c>
+      <c r="AL3">
+        <v>8.5652410345452568E-3</v>
+      </c>
+      <c r="AM3">
+        <v>0.2827104945611959</v>
+      </c>
+      <c r="AN3">
+        <v>-1.0319121449406939E-2</v>
+      </c>
+      <c r="AO3">
+        <v>6.0950831848589071E-2</v>
+      </c>
+      <c r="AP3">
+        <v>0.93002135970974187</v>
+      </c>
+      <c r="AQ3">
+        <v>-2.8933091804856911E-2</v>
+      </c>
+      <c r="AR3">
+        <v>0.1431952662721894</v>
+      </c>
+      <c r="AS3">
+        <v>-0.59793855469199086</v>
+      </c>
+      <c r="AT3">
+        <v>5.9277457081365607E-2</v>
+      </c>
+      <c r="AU3">
+        <v>1.578530792955157E-2</v>
+      </c>
+      <c r="AV3">
+        <v>0.11091130895680799</v>
+      </c>
+      <c r="AW3">
+        <v>9.0559601700628024E-3</v>
+      </c>
+      <c r="AX3">
+        <v>0.1891537034394177</v>
+      </c>
+      <c r="AY3">
+        <v>-5.1504663961349492E-2</v>
+      </c>
+      <c r="AZ3">
+        <v>2.3515785241348591E-2</v>
+      </c>
+      <c r="BA3">
+        <v>0.10842589071031219</v>
+      </c>
+      <c r="BB3">
+        <v>2.0207288730860178E-2</v>
+      </c>
+      <c r="BC3">
+        <v>-1.9242838411064989E-2</v>
+      </c>
+      <c r="BD3">
+        <v>4.4790217547480138E-3</v>
+      </c>
+      <c r="BE3">
+        <v>0.11735575674884111</v>
+      </c>
+      <c r="BF3">
+        <v>5.4014851572726221E-3</v>
+      </c>
+      <c r="BG3">
+        <v>0.13334802733083539</v>
+      </c>
+      <c r="BH3">
+        <v>1.0486717003182651</v>
+      </c>
+      <c r="BI3">
+        <v>-7.3950675395595827E-2</v>
+      </c>
+      <c r="BJ3">
+        <v>7.029223453721245E-2</v>
+      </c>
+      <c r="BK3">
+        <v>-1.026335506625323E-2</v>
+      </c>
+      <c r="BL3">
+        <v>1.2347196625539181E-2</v>
+      </c>
+      <c r="BM3">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="BN3">
+        <v>-0.49140588164004168</v>
+      </c>
+      <c r="BO3">
+        <v>4.1700390529288901E-2</v>
+      </c>
+      <c r="BP3">
+        <v>0.31932232314503922</v>
+      </c>
+      <c r="BQ3">
+        <v>1.0320892597353071</v>
+      </c>
+      <c r="BR3">
+        <v>-8.8675186277575438E-2</v>
+      </c>
+      <c r="BS3">
+        <v>0.43821076573161499</v>
+      </c>
+      <c r="BT3">
+        <v>2.1019843208524591</v>
+      </c>
+      <c r="BU3">
+        <v>-0.26663539553900839</v>
+      </c>
+      <c r="BV3">
+        <v>4.2327425373134608E-2</v>
+      </c>
+      <c r="BW3">
+        <v>-0.14536031552292619</v>
+      </c>
+      <c r="BX3">
+        <v>-3.344664434358037E-2</v>
+      </c>
+      <c r="BY3">
+        <v>0.68589935152257731</v>
+      </c>
+      <c r="BZ3">
+        <v>0.97192792320129162</v>
+      </c>
+      <c r="CA3">
+        <v>0.2105410411529928</v>
+      </c>
+      <c r="CB3">
+        <v>1.3492004737933111E-2</v>
+      </c>
+      <c r="CC3">
+        <v>1.879109828622753E-2</v>
+      </c>
+      <c r="CD3">
+        <v>3.3749989546182337E-2</v>
+      </c>
+      <c r="CE3">
+        <v>7.5272917686433072E-3</v>
+      </c>
+      <c r="CF3">
+        <v>0.5105343836008962</v>
+      </c>
+      <c r="CG3">
+        <v>2.7233988560994019E-2</v>
+      </c>
+      <c r="CH3">
+        <v>0.16666666666666691</v>
+      </c>
+      <c r="CI3">
+        <v>-0.56274643249530087</v>
+      </c>
+      <c r="CJ3">
+        <v>0.1750179351560765</v>
+      </c>
+      <c r="CK3">
+        <v>3.0716417240682969E-2</v>
+      </c>
+      <c r="CL3">
+        <v>0.34172479789481142</v>
+      </c>
+      <c r="CM3">
+        <v>-3.0726276743349181E-2</v>
+      </c>
+      <c r="CN3">
+        <v>2.049180327869049E-3</v>
+      </c>
+      <c r="CO3">
+        <v>0.1542699110282186</v>
+      </c>
+      <c r="CP3">
+        <v>5.4304065362318563E-3</v>
+      </c>
+      <c r="CQ3">
+        <v>4.2872405372405331E-2</v>
+      </c>
+      <c r="CR3">
+        <v>-5.3899625674093607E-2</v>
+      </c>
+      <c r="CS3">
+        <v>-2.860395472151905E-2</v>
+      </c>
+      <c r="CT3">
+        <v>4.2505799651242571E-2</v>
+      </c>
+      <c r="CU3">
+        <v>0.35540174256919838</v>
+      </c>
+      <c r="CV3">
+        <v>-4.0668613505720569E-2</v>
+      </c>
+      <c r="CW3">
+        <v>6.6651291512915156E-2</v>
+      </c>
+      <c r="CX3">
+        <v>0.72321716559522187</v>
+      </c>
+      <c r="CY3">
+        <v>-0.123862193165206</v>
+      </c>
+      <c r="CZ3">
+        <v>5.7253510636702143E-2</v>
+      </c>
+      <c r="DA3">
+        <v>4.0579033200897618E-3</v>
+      </c>
+      <c r="DB3">
+        <v>2.5572910305571069E-2</v>
+      </c>
+      <c r="DC3">
+        <v>161</v>
+      </c>
+      <c r="DD3">
+        <v>419.5</v>
+      </c>
+      <c r="DE3">
+        <v>464.75</v>
+      </c>
+      <c r="DF3">
+        <v>0.90478176118349951</v>
+      </c>
+      <c r="DG3">
+        <v>129</v>
+      </c>
+      <c r="DH3">
+        <v>906</v>
+      </c>
+      <c r="DI3">
+        <v>937</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>1983</v>
+      </c>
+      <c r="DM3">
+        <v>5</v>
+      </c>
+      <c r="DN3">
+        <v>64</v>
+      </c>
+      <c r="DO3">
+        <v>210</v>
+      </c>
+      <c r="DP3">
+        <v>36.04248046875</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>1</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>3</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
+      </c>
+      <c r="EI3">
+        <v>0</v>
+      </c>
+      <c r="EJ3">
+        <v>0</v>
+      </c>
+      <c r="EK3">
+        <v>0</v>
+      </c>
+      <c r="EL3">
+        <v>0</v>
+      </c>
+      <c r="EM3">
+        <v>0</v>
+      </c>
+      <c r="EN3">
+        <v>1</v>
+      </c>
+      <c r="EO3">
+        <v>1</v>
+      </c>
+      <c r="EP3">
+        <v>0</v>
+      </c>
+      <c r="EQ3">
+        <v>0</v>
+      </c>
+      <c r="ER3">
+        <v>0</v>
+      </c>
+      <c r="ES3">
+        <v>4</v>
+      </c>
+      <c r="ET3">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>